--- a/items.xlsx
+++ b/items.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t xml:space="preserve">item id </t>
   </si>
@@ -90,12 +90,6 @@
   </si>
   <si>
     <t>p2</t>
-  </si>
-  <si>
-    <t>17/4/2020</t>
-  </si>
-  <si>
-    <t>24/7/2021</t>
   </si>
   <si>
     <t>item21</t>
@@ -514,7 +508,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -591,7 +585,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -623,19 +617,19 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
         <v>20</v>
+      </c>
+      <c r="F4" s="4">
+        <v>44276</v>
+      </c>
+      <c r="G4" s="4">
+        <v>44350</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
